--- a/output/fit_clients/fit_round_184.xlsx
+++ b/output/fit_clients/fit_round_184.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1586291317.765069</v>
+        <v>2149309081.986177</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07646083441665587</v>
+        <v>0.07030532141780745</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02744367949455935</v>
+        <v>0.029435792353375</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>793145598.8741335</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1850741946.539762</v>
+        <v>2590047877.243245</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1257057053034426</v>
+        <v>0.1703003162347334</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0355379258440507</v>
+        <v>0.04115068102407747</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>925370990.1905856</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4921629771.403616</v>
+        <v>3267626168.873374</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1455952168806503</v>
+        <v>0.1193593063596859</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03019930300440687</v>
+        <v>0.02698564326374124</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>66</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2460814965.141371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3722790534.997735</v>
+        <v>3593153606.098577</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1051394231598689</v>
+        <v>0.07652288354040948</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04365000261417074</v>
+        <v>0.03075870258101414</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>72</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1861395289.515437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2496675678.147866</v>
+        <v>2601881795.641935</v>
       </c>
       <c r="F6" t="n">
-        <v>0.142040250304625</v>
+        <v>0.1020322084341351</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04494023383106295</v>
+        <v>0.05069706605718759</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>29</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1248337814.883317</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3016444212.934595</v>
+        <v>2692737027.894255</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09195242960793071</v>
+        <v>0.08317663912352571</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03579895120413264</v>
+        <v>0.03047444403596407</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>57</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1508222069.727446</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3725448322.25198</v>
+        <v>2447449074.40028</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1479749271317769</v>
+        <v>0.1378707100162675</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02438046667065098</v>
+        <v>0.02509608085931409</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>59</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1862724292.771852</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1982803180.196569</v>
+        <v>1445914290.719683</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1376904319737763</v>
+        <v>0.1810963797209101</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03455337511622147</v>
+        <v>0.0321248051552417</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>991401619.0519574</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5500870908.807005</v>
+        <v>3976817192.591677</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1947743701867717</v>
+        <v>0.1857012830355557</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03525371306923557</v>
+        <v>0.03330823156089577</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>77</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2750435592.50211</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3172236598.614848</v>
+        <v>3587760827.11814</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1437734089913026</v>
+        <v>0.1568014771364958</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03329480007720939</v>
+        <v>0.04143127059188673</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>76</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1586118254.23968</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2759094721.50113</v>
+        <v>3054473703.697548</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1702629606409547</v>
+        <v>0.1577789056746329</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03938884148154474</v>
+        <v>0.03706901499680344</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>65</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1379547356.692557</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4733836024.923676</v>
+        <v>3821165823.735137</v>
       </c>
       <c r="F13" t="n">
-        <v>0.101351518640293</v>
+        <v>0.09991924807220573</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02234749009020489</v>
+        <v>0.0289063764788863</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>62</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2366918030.095449</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3350869540.806506</v>
+        <v>3306610818.522874</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1766192710535702</v>
+        <v>0.1886940116993251</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0356810360540752</v>
+        <v>0.03255746723132093</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>59</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1675434779.408699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1692325382.926428</v>
+        <v>1566105378.699305</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1004876375524841</v>
+        <v>0.09108064720702885</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03887850078173386</v>
+        <v>0.03144215750216109</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>846162820.5410559</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2740664618.975027</v>
+        <v>2459438762.402</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07060686577833543</v>
+        <v>0.1157935290814751</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03167610754449308</v>
+        <v>0.03335798928166466</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>28</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1370332318.775275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3888166884.776605</v>
+        <v>3710920560.856653</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1312423172959794</v>
+        <v>0.1057296867325928</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0482629123632119</v>
+        <v>0.04904860608647836</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>54</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1944083482.512234</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3585832183.019617</v>
+        <v>3847610607.96319</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1850344107815374</v>
+        <v>0.1575420130476712</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03391991972397296</v>
+        <v>0.02564466659560611</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>60</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1792916079.308553</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>880544859.7526169</v>
+        <v>1051765598.993332</v>
       </c>
       <c r="F19" t="n">
-        <v>0.139564408371814</v>
+        <v>0.1360321801447713</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02684871452821543</v>
+        <v>0.02388980997570405</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>440272430.0182652</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2133224471.246605</v>
+        <v>2382484892.071609</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1176613601715178</v>
+        <v>0.1489865748467262</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02840140703044087</v>
+        <v>0.02863564918018055</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>30</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1066612247.759108</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2219768994.240656</v>
+        <v>1741305417.419359</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08431648278896972</v>
+        <v>0.08210619129894672</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04076567738568728</v>
+        <v>0.04273388049187508</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1109884512.002089</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3490595454.288146</v>
+        <v>2720690673.365529</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08922704867503511</v>
+        <v>0.09057901037891439</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03596248634471853</v>
+        <v>0.03487188154234208</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>52</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1745297759.274407</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1205141697.885597</v>
+        <v>1132394378.35033</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1457332322870282</v>
+        <v>0.1446938489484255</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0451313368888506</v>
+        <v>0.05212750868591255</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>602570884.534219</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2735279860.913665</v>
+        <v>3991572883.374048</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09575512422321232</v>
+        <v>0.1328526984079701</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03378801887426749</v>
+        <v>0.03506283249418758</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>54</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1367639983.480148</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>897972823.3195397</v>
+        <v>1062883287.201748</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08163767578445304</v>
+        <v>0.07946496379468605</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02986765519518126</v>
+        <v>0.02266007879527929</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>448986499.1052681</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1287996042.339344</v>
+        <v>1336545186.021094</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09451626944589403</v>
+        <v>0.1195670709542365</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03337915704268628</v>
+        <v>0.02780094546730859</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>643998063.6892875</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3395929344.287334</v>
+        <v>4512044189.976082</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1365947935307548</v>
+        <v>0.145305135538508</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02237775483233663</v>
+        <v>0.0178003345240138</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>43</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1697964712.303442</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3556065399.010682</v>
+        <v>2529273454.950276</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1108925579826129</v>
+        <v>0.1185081754798222</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0371760533096675</v>
+        <v>0.04428845610352413</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>58</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1778032758.991358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5255277831.780805</v>
+        <v>5038693394.093902</v>
       </c>
       <c r="F29" t="n">
-        <v>0.140942389512108</v>
+        <v>0.09690088505912715</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04636529925063187</v>
+        <v>0.04606345049268457</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>82</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2627638845.70294</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1525794151.854908</v>
+        <v>1452998601.545633</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08744981431386513</v>
+        <v>0.1263646483349754</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02534241429566949</v>
+        <v>0.03416352263793096</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>762897059.3567815</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1136645424.909311</v>
+        <v>1248338736.19225</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06763614328050618</v>
+        <v>0.1004403470352332</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03701697739619765</v>
+        <v>0.04547388078114971</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>568322678.808373</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1599977799.180875</v>
+        <v>1589368320.01739</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1013837996068786</v>
+        <v>0.07938425313474191</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02474309030182864</v>
+        <v>0.02566101782354884</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>799988988.5964727</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1911341106.143056</v>
+        <v>2724459841.725452</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2031104791410241</v>
+        <v>0.1427257568634165</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05321035389293966</v>
+        <v>0.05678431469230054</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>56</v>
-      </c>
-      <c r="J33" t="n">
-        <v>955670641.4069606</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1281128355.103182</v>
+        <v>1108264628.5005</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07573957539626185</v>
+        <v>0.09076121758766041</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01762416509227207</v>
+        <v>0.02507220865030807</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>640564169.2602464</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1339816341.463258</v>
+        <v>1291250636.542576</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09956322183423851</v>
+        <v>0.1090645943431677</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03564986780366399</v>
+        <v>0.0402282935348009</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>669908114.7570988</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2313978286.506393</v>
+        <v>2975579009.902516</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1302264355003694</v>
+        <v>0.1225569843242552</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01890864724898679</v>
+        <v>0.02452692625569325</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>46</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1156989180.11026</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2730191792.816941</v>
+        <v>2858369237.959321</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1031870735528357</v>
+        <v>0.1080457045184624</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03034149701394378</v>
+        <v>0.03926427496334955</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>50</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1365096024.095423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1466052831.140929</v>
+        <v>1358669691.254339</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09183822320354124</v>
+        <v>0.08675402865274565</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03665440043838662</v>
+        <v>0.02925427431111788</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>733026469.5951786</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1935453717.874392</v>
+        <v>2121697931.392149</v>
       </c>
       <c r="F39" t="n">
-        <v>0.175205248082175</v>
+        <v>0.1499840236053181</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03064209454597841</v>
+        <v>0.03174631543173411</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>967726863.2705984</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1614128529.239647</v>
+        <v>1589816189.182889</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1184119403405189</v>
+        <v>0.1110429482165497</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04670374089239716</v>
+        <v>0.03947968882733605</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>807064202.2205642</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1791184114.638449</v>
+        <v>2530220574.161693</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1358128219187493</v>
+        <v>0.1439791169558796</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03386217038062232</v>
+        <v>0.04225282615279247</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>47</v>
-      </c>
-      <c r="J41" t="n">
-        <v>895592151.9263936</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3324300634.958526</v>
+        <v>3835584826.042429</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1123091665680249</v>
+        <v>0.1212842496201845</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0308686331192712</v>
+        <v>0.03249896454312442</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>59</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1662150300.206743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2378701837.95295</v>
+        <v>2871595554.473392</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1360816232022763</v>
+        <v>0.1611029378493108</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01945676169406664</v>
+        <v>0.02340175750364003</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>63</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1189350979.820771</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2297431048.24541</v>
+        <v>1802218314.983402</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08440345267599231</v>
+        <v>0.07051144311591745</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02376819933823995</v>
+        <v>0.03256127763013745</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1148715689.781927</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2346917586.140028</v>
+        <v>1798164763.640241</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1356131313570133</v>
+        <v>0.1899426232384544</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05493742598590914</v>
+        <v>0.05215720209243008</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1173458818.862289</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4236788458.886834</v>
+        <v>4024928058.644522</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1579377267837317</v>
+        <v>0.152971136642341</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05907003539318333</v>
+        <v>0.04971589378939074</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>65</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2118394212.49953</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4635274469.189358</v>
+        <v>3682339691.970083</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1549753644954957</v>
+        <v>0.1328832317272302</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05500488091377931</v>
+        <v>0.03952526935825047</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>49</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2317637269.733707</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4108715531.273991</v>
+        <v>3880453910.088381</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08405746360218119</v>
+        <v>0.08825306525619826</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03484726906753919</v>
+        <v>0.03545420393432701</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>65</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2054357793.686968</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1398098727.445963</v>
+        <v>1282527171.388813</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1895358304209714</v>
+        <v>0.1847298442467572</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02929225125679458</v>
+        <v>0.03292173328815742</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>699049411.5576071</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3243959609.805991</v>
+        <v>3129964787.569882</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1338595251351409</v>
+        <v>0.130296077716575</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03479394682166139</v>
+        <v>0.03320339699256747</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>63</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1621979847.354863</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1038925621.746273</v>
+        <v>1116119175.448788</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1512121619923753</v>
+        <v>0.1760667778905944</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05403300280849502</v>
+        <v>0.05218415801181598</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>519462888.5088241</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3654925916.052479</v>
+        <v>4164233814.738513</v>
       </c>
       <c r="F52" t="n">
-        <v>0.125872263554706</v>
+        <v>0.09040076246629709</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05250914127005837</v>
+        <v>0.04199076397316416</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>76</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1827463034.788704</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2388949153.580768</v>
+        <v>3724119922.582422</v>
       </c>
       <c r="F53" t="n">
-        <v>0.18584693133665</v>
+        <v>0.1997616792754942</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02489755237557348</v>
+        <v>0.0226794644754233</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>53</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1194474651.416705</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3556982482.004237</v>
+        <v>3725328499.659382</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1034078420880903</v>
+        <v>0.1517186797701892</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03655751494145597</v>
+        <v>0.04306887460372498</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>59</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1778491270.259751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3219026872.085013</v>
+        <v>4285754921.46496</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1408967501803875</v>
+        <v>0.1663002789084731</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02016316947344966</v>
+        <v>0.01995667372656179</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>50</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1609513376.483783</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1255684684.389735</v>
+        <v>1881881614.183375</v>
       </c>
       <c r="F56" t="n">
-        <v>0.143937559963099</v>
+        <v>0.1068792004053454</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05221870160214264</v>
+        <v>0.05221340691732624</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>627842420.6242131</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3895115422.554149</v>
+        <v>4088085257.617544</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1485542678027428</v>
+        <v>0.1427595972811104</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02146710392524568</v>
+        <v>0.02453111787765516</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>58</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1947557790.817071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1727480825.971376</v>
+        <v>1692786371.275794</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1617637478015162</v>
+        <v>0.1705442211346472</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03025971623626373</v>
+        <v>0.03231379967307173</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>863740423.3326955</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5006094999.015203</v>
+        <v>4265099800.784918</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08539795346250924</v>
+        <v>0.1302959951712329</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03357280840768357</v>
+        <v>0.04287548025934611</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>50</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2503047426.884079</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3196872797.562941</v>
+        <v>2553800507.693696</v>
       </c>
       <c r="F60" t="n">
-        <v>0.198150721775339</v>
+        <v>0.1440626670243731</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02081876771145534</v>
+        <v>0.03258870829593059</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>61</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1598436489.759241</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2868677027.926583</v>
+        <v>2255216893.484055</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1544751426415045</v>
+        <v>0.1118961485761995</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02468815684152203</v>
+        <v>0.02600078008866978</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>66</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1434338506.792552</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1492146539.863428</v>
+        <v>2098747387.630786</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1242024114266258</v>
+        <v>0.1265831796840338</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04059249832062568</v>
+        <v>0.04802915802840826</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>746073251.8055934</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5360714162.217041</v>
+        <v>4851005367.863243</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09929988654421038</v>
+        <v>0.08705176194752245</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04300739894097388</v>
+        <v>0.04238212400344891</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>52</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2680357082.739978</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4539065762.792087</v>
+        <v>5184568119.15432</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1259172687741614</v>
+        <v>0.170988078852789</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02207716015937424</v>
+        <v>0.03321510792887906</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>57</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2269532955.151665</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4421451999.674465</v>
+        <v>4851045407.70766</v>
       </c>
       <c r="F65" t="n">
-        <v>0.124373759168273</v>
+        <v>0.1683877351706121</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02297570676123797</v>
+        <v>0.03224645254146053</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>66</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2210725993.240224</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5009665130.916298</v>
+        <v>4590676640.202607</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1424750884347262</v>
+        <v>0.1077020346684658</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03126976193217926</v>
+        <v>0.03123029109684591</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>53</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2504832593.113413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3208015893.11522</v>
+        <v>2875385507.189948</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08168526917330392</v>
+        <v>0.08516538279055583</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03994965715009823</v>
+        <v>0.03796215428671048</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>59</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1604007947.153613</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5617306165.723429</v>
+        <v>4671164339.511416</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1190420730709393</v>
+        <v>0.09804046250619522</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04144281364784477</v>
+        <v>0.03744112457592431</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>59</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2808653176.6288</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2015556725.158228</v>
+        <v>2123957320.056649</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1430618669266362</v>
+        <v>0.1241895930217662</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03721731642144106</v>
+        <v>0.04742398103006484</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1007778369.506374</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3430779028.342175</v>
+        <v>3362899724.511612</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07996184450108842</v>
+        <v>0.08349990401694835</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03247436277165084</v>
+        <v>0.0394420072085456</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>53</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1715389519.13382</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5535987140.514151</v>
+        <v>5293885545.181753</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1859319322648006</v>
+        <v>0.1841958541087595</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03128656483174375</v>
+        <v>0.03006859007915757</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>67</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2767993715.982469</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1552569206.670937</v>
+        <v>2206818438.894614</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08490115948777065</v>
+        <v>0.0938081783460135</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04071825402077792</v>
+        <v>0.04900676988827927</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>776284621.8152329</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2491682962.282732</v>
+        <v>2280812161.976614</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08317298211612206</v>
+        <v>0.1038543454497192</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05245158620748298</v>
+        <v>0.03476155461000361</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>70</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1245841523.643938</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3704063227.161695</v>
+        <v>2754535529.931247</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1784150090372384</v>
+        <v>0.158786112844056</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02734057305832718</v>
+        <v>0.02298676592185686</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>63</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1852031618.108748</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2096819728.096733</v>
+        <v>2105758819.91302</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1197228303940975</v>
+        <v>0.1583717714288715</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02332163446926013</v>
+        <v>0.03746127726549208</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1048409819.185942</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3886661687.142919</v>
+        <v>4397847025.26454</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09794465040830455</v>
+        <v>0.1031588596502688</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0341169908811398</v>
+        <v>0.02824605014966784</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>42</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1943330823.537586</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2100914614.394147</v>
+        <v>1501323660.551564</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1651933050831573</v>
+        <v>0.1473105028360344</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02142817469903829</v>
+        <v>0.02123846091735833</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1050457383.560661</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3015120938.843596</v>
+        <v>3899777379.187043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1360073398731899</v>
+        <v>0.129957642832984</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03659148059383681</v>
+        <v>0.05237214980907173</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>64</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1507560505.603637</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1365025558.31236</v>
+        <v>1540098213.204228</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1106492099603041</v>
+        <v>0.1622727675626164</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03614366221244447</v>
+        <v>0.02551830907802532</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>682512789.7418989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5500836142.991549</v>
+        <v>4676987169.652199</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08278318774396623</v>
+        <v>0.0676606165904239</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02684507629609748</v>
+        <v>0.03601307969890031</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>38</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2750418145.585063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5035047284.021848</v>
+        <v>3449651592.817927</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1146811981482821</v>
+        <v>0.121837410211059</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02105350887064708</v>
+        <v>0.02849847984421935</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>43</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2517523643.621353</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4748882748.200758</v>
+        <v>4183864387.621893</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1583217945218779</v>
+        <v>0.1553580686048802</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02389185265414466</v>
+        <v>0.02249003213056613</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>65</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2374441372.01072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1501031373.455691</v>
+        <v>1846426479.833537</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1247224879511805</v>
+        <v>0.1423488678609335</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02963723049213791</v>
+        <v>0.03209198424077347</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>750515609.9295919</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2300429686.620758</v>
+        <v>1993259902.761811</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07707148587465536</v>
+        <v>0.1197535753477327</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03502144503006708</v>
+        <v>0.04446143069656432</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1150214804.33362</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2678085815.466268</v>
+        <v>3309295110.862161</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1563166014108375</v>
+        <v>0.1734871944239067</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03445786196918652</v>
+        <v>0.04272687136651195</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>69</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1339042932.321239</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1836938611.382351</v>
+        <v>2700318575.858757</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1157931306204597</v>
+        <v>0.1190647170809255</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0258843217725578</v>
+        <v>0.02532588203786819</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>25</v>
-      </c>
-      <c r="J86" t="n">
-        <v>918469310.6104676</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1252676834.886452</v>
+        <v>929812176.2344459</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1387857288911796</v>
+        <v>0.1327950363163863</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03347174716355803</v>
+        <v>0.03706297225071799</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>626338486.5062567</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2665558044.057911</v>
+        <v>2532523038.665695</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1756412186774033</v>
+        <v>0.1712698598437168</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02562982884668605</v>
+        <v>0.0388401912497076</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>73</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1332779019.405993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2621812385.875609</v>
+        <v>2463934310.663465</v>
       </c>
       <c r="F89" t="n">
-        <v>0.103505731937871</v>
+        <v>0.1554088128452919</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03859192624341738</v>
+        <v>0.03087941772746837</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>63</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1310906258.735991</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1714694271.39717</v>
+        <v>1487901184.359321</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09921900170619095</v>
+        <v>0.09712691701278539</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03563573283466003</v>
+        <v>0.05076859143286477</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>857347153.7294886</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1574066354.079844</v>
+        <v>1270786740.391335</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1805795108078638</v>
+        <v>0.1326596083113414</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05048981114725447</v>
+        <v>0.03837408403086276</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>787033206.0478686</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2045134618.567756</v>
+        <v>2521670689.317081</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1065031334148381</v>
+        <v>0.07803111475034717</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04108102772747667</v>
+        <v>0.03229351697634867</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>46</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1022567258.854716</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5028756797.581255</v>
+        <v>3234033167.440225</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08847216764400208</v>
+        <v>0.1164580742407357</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03398753364907268</v>
+        <v>0.05345945264245275</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>55</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2514378332.864187</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2463183320.877785</v>
+        <v>1911235187.411731</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1609209752180935</v>
+        <v>0.1041183829775885</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03840739670535136</v>
+        <v>0.03853948491255996</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1231591719.04318</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2973711999.976936</v>
+        <v>2703969765.680562</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09560681045835175</v>
+        <v>0.1244415097435276</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05220585324368295</v>
+        <v>0.04352842822899929</v>
       </c>
       <c r="H95" t="b">
         <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>43</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1486856001.605838</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2074683587.29946</v>
+        <v>2378006310.847912</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09570069262874754</v>
+        <v>0.09148073048457124</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03111231452329187</v>
+        <v>0.03419048258990866</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1037341772.630641</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3272074987.544061</v>
+        <v>3718916455.001902</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1699970211796982</v>
+        <v>0.1227671796093598</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01779059765745778</v>
+        <v>0.02311342213372874</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>59</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1636037491.586545</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2852919726.64988</v>
+        <v>3741062481.24457</v>
       </c>
       <c r="F98" t="n">
-        <v>0.106355214584264</v>
+        <v>0.1028664467527557</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02929029511901321</v>
+        <v>0.02322802942081623</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>49</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1426459838.008967</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2691110351.448308</v>
+        <v>2540490225.984325</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09807930690173056</v>
+        <v>0.1099441365319064</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03195099207301878</v>
+        <v>0.03067766523774212</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>57</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1345555139.275198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4594618940.778561</v>
+        <v>3494632471.605778</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1164463461847606</v>
+        <v>0.1481532322519634</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0228185245620014</v>
+        <v>0.02434275280228007</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>56</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2297309588.511471</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2344629116.766357</v>
+        <v>2426544033.330857</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2102989512319131</v>
+        <v>0.2163829792006877</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03840625309650766</v>
+        <v>0.04237047643544285</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>75</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1172314560.791904</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_184.xlsx
+++ b/output/fit_clients/fit_round_184.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2149309081.986177</v>
+        <v>1855385875.133734</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07030532141780745</v>
+        <v>0.08133525983029548</v>
       </c>
       <c r="G2" t="n">
-        <v>0.029435792353375</v>
+        <v>0.03990128369601936</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2590047877.243245</v>
+        <v>2548426098.454712</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1703003162347334</v>
+        <v>0.1284322389113487</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04115068102407747</v>
+        <v>0.03584377968360335</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3267626168.873374</v>
+        <v>4944206126.666756</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1193593063596859</v>
+        <v>0.1008090994549517</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02698564326374124</v>
+        <v>0.02841054599842974</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3593153606.098577</v>
+        <v>3468206698.343291</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07652288354040948</v>
+        <v>0.09478388530436808</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03075870258101414</v>
+        <v>0.04786585226262797</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2601881795.641935</v>
+        <v>2240148029.062435</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1020322084341351</v>
+        <v>0.1020065396466606</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05069706605718759</v>
+        <v>0.04911770957207749</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2692737027.894255</v>
+        <v>2987632368.246139</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08317663912352571</v>
+        <v>0.101399615172528</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03047444403596407</v>
+        <v>0.03179759061177706</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2447449074.40028</v>
+        <v>2728767783.640007</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1378707100162675</v>
+        <v>0.1645451652131212</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02509608085931409</v>
+        <v>0.02991376037539301</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1445914290.719683</v>
+        <v>2206589118.550339</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1810963797209101</v>
+        <v>0.1347479757437984</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0321248051552417</v>
+        <v>0.03119472225603939</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3976817192.591677</v>
+        <v>5686927510.354451</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1857012830355557</v>
+        <v>0.157280473585622</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03330823156089577</v>
+        <v>0.04864050137428685</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3587760827.11814</v>
+        <v>2613359594.573747</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1568014771364958</v>
+        <v>0.1261598179564719</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04143127059188673</v>
+        <v>0.04786864986484361</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3054473703.697548</v>
+        <v>3017792255.732371</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1577789056746329</v>
+        <v>0.1979979328572827</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03706901499680344</v>
+        <v>0.04272957005386453</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3821165823.735137</v>
+        <v>3580362726.22682</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09991924807220573</v>
+        <v>0.08542826055320801</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0289063764788863</v>
+        <v>0.0283567306068522</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3306610818.522874</v>
+        <v>3521929275.197488</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1886940116993251</v>
+        <v>0.1794729946821375</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03255746723132093</v>
+        <v>0.03039943526196711</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1566105378.699305</v>
+        <v>1802068609.200889</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09108064720702885</v>
+        <v>0.1025371835689041</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03144215750216109</v>
+        <v>0.04305536187866644</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2459438762.402</v>
+        <v>1989472863.909641</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1157935290814751</v>
+        <v>0.1107491982326969</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03335798928166466</v>
+        <v>0.04201582157289184</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3710920560.856653</v>
+        <v>3682566518.838526</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1057296867325928</v>
+        <v>0.1133246236406481</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04904860608647836</v>
+        <v>0.04621374086309477</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3847610607.96319</v>
+        <v>3278458853.852641</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1575420130476712</v>
+        <v>0.1485138930538817</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02564466659560611</v>
+        <v>0.02838607989308078</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1051765598.993332</v>
+        <v>1099965603.28083</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1360321801447713</v>
+        <v>0.1286392882154996</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02388980997570405</v>
+        <v>0.0227664895146767</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2382484892.071609</v>
+        <v>2127371722.352348</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1489865748467262</v>
+        <v>0.1570747380494643</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02863564918018055</v>
+        <v>0.02535951582481209</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1741305417.419359</v>
+        <v>2628089310.410609</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08210619129894672</v>
+        <v>0.0693874413306924</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04273388049187508</v>
+        <v>0.03821087427386571</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2720690673.365529</v>
+        <v>3425231981.603292</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09057901037891439</v>
+        <v>0.0981901799582149</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03487188154234208</v>
+        <v>0.05664418387157358</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1132394378.35033</v>
+        <v>1023743585.52763</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1446938489484255</v>
+        <v>0.1713175585601671</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05212750868591255</v>
+        <v>0.04977478288720445</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3991572883.374048</v>
+        <v>3570222156.22627</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1328526984079701</v>
+        <v>0.1396013964269837</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03506283249418758</v>
+        <v>0.02327584941696404</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1062883287.201748</v>
+        <v>1200958355.938125</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07946496379468605</v>
+        <v>0.08688523347270329</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02266007879527929</v>
+        <v>0.02525070909710062</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1336545186.021094</v>
+        <v>1092713903.861306</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1195670709542365</v>
+        <v>0.1061584791382396</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02780094546730859</v>
+        <v>0.02854573116176031</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4512044189.976082</v>
+        <v>3137118879.866938</v>
       </c>
       <c r="F27" t="n">
-        <v>0.145305135538508</v>
+        <v>0.1132272681858172</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0178003345240138</v>
+        <v>0.01650846224269289</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2529273454.950276</v>
+        <v>3595283024.155692</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1185081754798222</v>
+        <v>0.1085430619037666</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04428845610352413</v>
+        <v>0.04450281400930632</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5038693394.093902</v>
+        <v>4609422054.590821</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09690088505912715</v>
+        <v>0.1200523292073671</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04606345049268457</v>
+        <v>0.03900628527924453</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1452998601.545633</v>
+        <v>2313354539.344482</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1263646483349754</v>
+        <v>0.09145483229730327</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03416352263793096</v>
+        <v>0.02564817103631724</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1248338736.19225</v>
+        <v>1076344486.817948</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1004403470352332</v>
+        <v>0.08945852502427243</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04547388078114971</v>
+        <v>0.04237075452172145</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1589368320.01739</v>
+        <v>1409568977.497357</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07938425313474191</v>
+        <v>0.07438339414754876</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02566101782354884</v>
+        <v>0.03644626962366369</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2724459841.725452</v>
+        <v>2389275642.176925</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1427257568634165</v>
+        <v>0.1629949023130413</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05678431469230054</v>
+        <v>0.04544265744934885</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1108264628.5005</v>
+        <v>1092501171.958265</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09076121758766041</v>
+        <v>0.07604736001864283</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02507220865030807</v>
+        <v>0.02839647666705254</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1291250636.542576</v>
+        <v>1030663975.679709</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1090645943431677</v>
+        <v>0.07178091922806037</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0402282935348009</v>
+        <v>0.04243777673018199</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2975579009.902516</v>
+        <v>2373996824.889372</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1225569843242552</v>
+        <v>0.1744875161761014</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02452692625569325</v>
+        <v>0.01779158894123578</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2858369237.959321</v>
+        <v>1880239839.011803</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1080457045184624</v>
+        <v>0.09658738811240852</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03926427496334955</v>
+        <v>0.04000137692657565</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1358669691.254339</v>
+        <v>1494345752.746899</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08675402865274565</v>
+        <v>0.09124961622110712</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02925427431111788</v>
+        <v>0.02586925798738649</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2121697931.392149</v>
+        <v>2201670470.332874</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1499840236053181</v>
+        <v>0.131965606875437</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03174631543173411</v>
+        <v>0.02964198101465789</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1589816189.182889</v>
+        <v>1208512686.253993</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1110429482165497</v>
+        <v>0.1212018818130857</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03947968882733605</v>
+        <v>0.03762450612793286</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2530220574.161693</v>
+        <v>1988632806.77322</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1439791169558796</v>
+        <v>0.1326333624073034</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04225282615279247</v>
+        <v>0.03781649853141712</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3835584826.042429</v>
+        <v>3709564394.857727</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1212842496201845</v>
+        <v>0.08238346537521565</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03249896454312442</v>
+        <v>0.04395193832946672</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2871595554.473392</v>
+        <v>2588616877.96867</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1611029378493108</v>
+        <v>0.1667052873230276</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02340175750364003</v>
+        <v>0.01949638425854796</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1802218314.983402</v>
+        <v>1980177563.38206</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07051144311591745</v>
+        <v>0.09162416465053921</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03256127763013745</v>
+        <v>0.03567941546935639</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1798164763.640241</v>
+        <v>2344872447.892557</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1899426232384544</v>
+        <v>0.1830350690310178</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05215720209243008</v>
+        <v>0.04512161733104265</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4024928058.644522</v>
+        <v>3798035347.382316</v>
       </c>
       <c r="F46" t="n">
-        <v>0.152971136642341</v>
+        <v>0.1111549612354136</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04971589378939074</v>
+        <v>0.05385957033569214</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3682339691.970083</v>
+        <v>5006394461.414101</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1328832317272302</v>
+        <v>0.1348700740136491</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03952526935825047</v>
+        <v>0.04178421030121404</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3880453910.088381</v>
+        <v>3488722483.230296</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08825306525619826</v>
+        <v>0.1006058304110877</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03545420393432701</v>
+        <v>0.03548055127793432</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1282527171.388813</v>
+        <v>1662776490.697237</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1847298442467572</v>
+        <v>0.1240670205498963</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03292173328815742</v>
+        <v>0.03628250266413777</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3129964787.569882</v>
+        <v>3238217761.796977</v>
       </c>
       <c r="F50" t="n">
-        <v>0.130296077716575</v>
+        <v>0.1770534959762111</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03320339699256747</v>
+        <v>0.03778036601098154</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1116119175.448788</v>
+        <v>1506249393.627595</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1760667778905944</v>
+        <v>0.1470320644303783</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05218415801181598</v>
+        <v>0.05053577047687493</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4164233814.738513</v>
+        <v>4366982605.441961</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09040076246629709</v>
+        <v>0.1323888175835428</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04199076397316416</v>
+        <v>0.03843410024660155</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3724119922.582422</v>
+        <v>3782191956.0455</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1997616792754942</v>
+        <v>0.1486291420791105</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0226794644754233</v>
+        <v>0.0310465810560062</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3725328499.659382</v>
+        <v>4926312386.942327</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1517186797701892</v>
+        <v>0.1519347522295298</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04306887460372498</v>
+        <v>0.03617969158249838</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4285754921.46496</v>
+        <v>3526888964.710258</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1663002789084731</v>
+        <v>0.1627995971364161</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01995667372656179</v>
+        <v>0.02834704706723979</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1881881614.183375</v>
+        <v>1627112156.026831</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1068792004053454</v>
+        <v>0.1506471539979831</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05221340691732624</v>
+        <v>0.04062598636463639</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4088085257.617544</v>
+        <v>4209375838.585527</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1427595972811104</v>
+        <v>0.1174526834305553</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02453111787765516</v>
+        <v>0.02223468428552114</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1692786371.275794</v>
+        <v>1212486834.002299</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1705442211346472</v>
+        <v>0.1298585989559571</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03231379967307173</v>
+        <v>0.03209613153978304</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4265099800.784918</v>
+        <v>3497756536.142797</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1302959951712329</v>
+        <v>0.08030318110440189</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04287548025934611</v>
+        <v>0.04727688302588534</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2553800507.693696</v>
+        <v>2848334711.570951</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1440626670243731</v>
+        <v>0.1931469429579792</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03258870829593059</v>
+        <v>0.03213023466304182</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2255216893.484055</v>
+        <v>2268826172.142118</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1118961485761995</v>
+        <v>0.1674259945746521</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02600078008866978</v>
+        <v>0.03053041872446899</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2098747387.630786</v>
+        <v>1717893724.321417</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1265831796840338</v>
+        <v>0.1265580313138421</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04802915802840826</v>
+        <v>0.04842141416221075</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4851005367.863243</v>
+        <v>4935869832.298057</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08705176194752245</v>
+        <v>0.07813604800119109</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04238212400344891</v>
+        <v>0.03598518306141862</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5184568119.15432</v>
+        <v>3610332929.763783</v>
       </c>
       <c r="F64" t="n">
-        <v>0.170988078852789</v>
+        <v>0.1765608341287555</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03321510792887906</v>
+        <v>0.03483650700724926</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4851045407.70766</v>
+        <v>4909420393.051881</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1683877351706121</v>
+        <v>0.1300729862941949</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03224645254146053</v>
+        <v>0.02140497567210253</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4590676640.202607</v>
+        <v>5292451848.01259</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1077020346684658</v>
+        <v>0.1397211579345728</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03123029109684591</v>
+        <v>0.03856132649424389</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2875385507.189948</v>
+        <v>2558686527.577634</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08516538279055583</v>
+        <v>0.08208587298143062</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03796215428671048</v>
+        <v>0.04703930794824441</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4671164339.511416</v>
+        <v>4459099567.917073</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09804046250619522</v>
+        <v>0.1133868400756638</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03744112457592431</v>
+        <v>0.04402938807090206</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2123957320.056649</v>
+        <v>1553769876.724429</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1241895930217662</v>
+        <v>0.1657639928036267</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04742398103006484</v>
+        <v>0.04409358192556102</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3362899724.511612</v>
+        <v>3374441301.462725</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08349990401694835</v>
+        <v>0.07728447046239373</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0394420072085456</v>
+        <v>0.03653761318490223</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5293885545.181753</v>
+        <v>4696450985.143342</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1841958541087595</v>
+        <v>0.1395105630096005</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03006859007915757</v>
+        <v>0.0256534241750823</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2206818438.894614</v>
+        <v>1785978346.3307</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0938081783460135</v>
+        <v>0.09199070069276641</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04900676988827927</v>
+        <v>0.04815792564442773</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2280812161.976614</v>
+        <v>3254663489.46276</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1038543454497192</v>
+        <v>0.08650156664881606</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03476155461000361</v>
+        <v>0.04211597305871487</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2754535529.931247</v>
+        <v>3539407243.524034</v>
       </c>
       <c r="F74" t="n">
-        <v>0.158786112844056</v>
+        <v>0.1238776873874324</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02298676592185686</v>
+        <v>0.02650147421573419</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2105758819.91302</v>
+        <v>1626413794.222589</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1583717714288715</v>
+        <v>0.167270655735626</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03746127726549208</v>
+        <v>0.02492905081621611</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4397847025.26454</v>
+        <v>5264786009.263941</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1031588596502688</v>
+        <v>0.1102284942419448</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02824605014966784</v>
+        <v>0.02718414875407001</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1501323660.551564</v>
+        <v>2251366837.905396</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1473105028360344</v>
+        <v>0.1318639727022291</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02123846091735833</v>
+        <v>0.02086609166378761</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3899777379.187043</v>
+        <v>4580648479.050946</v>
       </c>
       <c r="F78" t="n">
-        <v>0.129957642832984</v>
+        <v>0.1099138829683457</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05237214980907173</v>
+        <v>0.03542058454532526</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1540098213.204228</v>
+        <v>1492011424.83424</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1622727675626164</v>
+        <v>0.1499040330722353</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02551830907802532</v>
+        <v>0.03622123991935857</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4676987169.652199</v>
+        <v>3515581908.461995</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0676606165904239</v>
+        <v>0.09649391260963731</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03601307969890031</v>
+        <v>0.0306139419853488</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3449651592.817927</v>
+        <v>3965814548.422116</v>
       </c>
       <c r="F81" t="n">
-        <v>0.121837410211059</v>
+        <v>0.08824739762656214</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02849847984421935</v>
+        <v>0.02511075350129578</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4183864387.621893</v>
+        <v>3986157215.08949</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1553580686048802</v>
+        <v>0.1786564588080295</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02249003213056613</v>
+        <v>0.01945769251348634</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1846426479.833537</v>
+        <v>1832117185.079319</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1423488678609335</v>
+        <v>0.1113062436642386</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03209198424077347</v>
+        <v>0.03061919489232359</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1993259902.761811</v>
+        <v>2108100909.309998</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1197535753477327</v>
+        <v>0.0868524385307346</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04446143069656432</v>
+        <v>0.03278041570895553</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3309295110.862161</v>
+        <v>3321482184.438751</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1734871944239067</v>
+        <v>0.1301101745313462</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04272687136651195</v>
+        <v>0.0523317343877496</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2700318575.858757</v>
+        <v>2396508842.658295</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1190647170809255</v>
+        <v>0.1402721681107086</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02532588203786819</v>
+        <v>0.02001419519500549</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>929812176.2344459</v>
+        <v>1411307437.695291</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1327950363163863</v>
+        <v>0.1341918452142491</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03706297225071799</v>
+        <v>0.02940843681129014</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2532523038.665695</v>
+        <v>3135039805.564507</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1712698598437168</v>
+        <v>0.1173992933771368</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0388401912497076</v>
+        <v>0.02412554116835766</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2463934310.663465</v>
+        <v>2383209066.68622</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1554088128452919</v>
+        <v>0.1123641097139047</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03087941772746837</v>
+        <v>0.027603780167906</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1487901184.359321</v>
+        <v>1821268457.319506</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09712691701278539</v>
+        <v>0.1093890536352776</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05076859143286477</v>
+        <v>0.04488941393642196</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1270786740.391335</v>
+        <v>1752442792.110751</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1326596083113414</v>
+        <v>0.1811355485035727</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03837408403086276</v>
+        <v>0.04378066198930636</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2521670689.317081</v>
+        <v>2578103584.155285</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07803111475034717</v>
+        <v>0.08715395746388679</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03229351697634867</v>
+        <v>0.03418121543578841</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3234033167.440225</v>
+        <v>4522714015.252737</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1164580742407357</v>
+        <v>0.1337397600509814</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05345945264245275</v>
+        <v>0.05430749626381462</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1911235187.411731</v>
+        <v>2120036512.587296</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1041183829775885</v>
+        <v>0.1686036547189096</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03853948491255996</v>
+        <v>0.03636934622723763</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2703969765.680562</v>
+        <v>2190718558.792308</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1244415097435276</v>
+        <v>0.08404822655893472</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04352842822899929</v>
+        <v>0.03243655611502454</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2378006310.847912</v>
+        <v>2045029767.27272</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09148073048457124</v>
+        <v>0.08957025150838241</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03419048258990866</v>
+        <v>0.02915434121486506</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3718916455.001902</v>
+        <v>4263031372.362651</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1227671796093598</v>
+        <v>0.1665051551877558</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02311342213372874</v>
+        <v>0.0182720163551439</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3741062481.24457</v>
+        <v>2923557392.530619</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1028664467527557</v>
+        <v>0.0826038048298371</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02322802942081623</v>
+        <v>0.02610029848108073</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2540490225.984325</v>
+        <v>2385675637.206395</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1099441365319064</v>
+        <v>0.1132882258505809</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03067766523774212</v>
+        <v>0.03199204699195632</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3494632471.605778</v>
+        <v>4040900505.025039</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1481532322519634</v>
+        <v>0.152434379598603</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02434275280228007</v>
+        <v>0.01735880964255844</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2426544033.330857</v>
+        <v>2988582239.244354</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2163829792006877</v>
+        <v>0.2081480140338187</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04237047643544285</v>
+        <v>0.05650158729432284</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_184.xlsx
+++ b/output/fit_clients/fit_round_184.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1855385875.133734</v>
+        <v>2370877673.171539</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08133525983029548</v>
+        <v>0.09604922314310191</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03990128369601936</v>
+        <v>0.04559178252992542</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2548426098.454712</v>
+        <v>1602773944.434908</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1284322389113487</v>
+        <v>0.1165489541990042</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03584377968360335</v>
+        <v>0.0422460243831238</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4944206126.666756</v>
+        <v>4681572584.062427</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1008090994549517</v>
+        <v>0.1602435377341494</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02841054599842974</v>
+        <v>0.03510286488122324</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>101</v>
+      </c>
+      <c r="J4" t="n">
+        <v>184</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,16 +606,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3468206698.343291</v>
+        <v>3721683082.898401</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09478388530436808</v>
+        <v>0.06924139413316939</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04786585226262797</v>
+        <v>0.04968602064652473</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>76</v>
+      </c>
+      <c r="J5" t="n">
+        <v>184</v>
+      </c>
+      <c r="K5" t="n">
+        <v>142.9976343756035</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2240148029.062435</v>
+        <v>1849595511.501763</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1020065396466606</v>
+        <v>0.14515817791869</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04911770957207749</v>
+        <v>0.05611230717153106</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2987632368.246139</v>
+        <v>2588236342.422398</v>
       </c>
       <c r="F7" t="n">
-        <v>0.101399615172528</v>
+        <v>0.07232884221750926</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03179759061177706</v>
+        <v>0.03926261204890067</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2728767783.640007</v>
+        <v>3657203059.777642</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1645451652131212</v>
+        <v>0.1387207885693509</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02991376037539301</v>
+        <v>0.02118806013879689</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>52</v>
+      </c>
+      <c r="J8" t="n">
+        <v>183</v>
+      </c>
+      <c r="K8" t="n">
+        <v>121.2453652175452</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2206589118.550339</v>
+        <v>1741196409.050796</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1347479757437984</v>
+        <v>0.1967353321275406</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03119472225603939</v>
+        <v>0.03395314796128317</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +779,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5686927510.354451</v>
+        <v>4252616820.939286</v>
       </c>
       <c r="F10" t="n">
-        <v>0.157280473585622</v>
+        <v>0.206143911358689</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04864050137428685</v>
+        <v>0.03532300016242274</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>168</v>
+      </c>
+      <c r="J10" t="n">
+        <v>184</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2613359594.573747</v>
+        <v>2803161159.04395</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1261598179564719</v>
+        <v>0.151019160453037</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04786864986484361</v>
+        <v>0.04628085135517236</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>77</v>
+      </c>
+      <c r="J11" t="n">
+        <v>182</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3017792255.732371</v>
+        <v>2072430435.481669</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1979979328572827</v>
+        <v>0.1689396078855359</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04272957005386453</v>
+        <v>0.03274917150653671</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3580362726.22682</v>
+        <v>4157991369.055201</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08542826055320801</v>
+        <v>0.08863110427415785</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0283567306068522</v>
+        <v>0.02166819488315634</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>91</v>
+      </c>
+      <c r="J13" t="n">
+        <v>184</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3521929275.197488</v>
+        <v>3698645789.888455</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1794729946821375</v>
+        <v>0.1504792878923298</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03039943526196711</v>
+        <v>0.03386069704446334</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>34</v>
+      </c>
+      <c r="J14" t="n">
+        <v>184</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +960,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1802068609.200889</v>
+        <v>1697807842.674086</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1025371835689041</v>
+        <v>0.1093057578629514</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04305536187866644</v>
+        <v>0.04242794861208971</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +995,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1989472863.909641</v>
+        <v>2390431103.617014</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1107491982326969</v>
+        <v>0.08506100258483434</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04201582157289184</v>
+        <v>0.04546031951822051</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1024,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3682566518.838526</v>
+        <v>3824582294.729336</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1133246236406481</v>
+        <v>0.1454103983482107</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04621374086309477</v>
+        <v>0.05327752885634582</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>88</v>
+      </c>
+      <c r="J17" t="n">
+        <v>184</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1059,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3278458853.852641</v>
+        <v>3906409400.321067</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1485138930538817</v>
+        <v>0.1555142605382686</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02838607989308078</v>
+        <v>0.0322458257193905</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>46</v>
+      </c>
+      <c r="J18" t="n">
+        <v>184</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1094,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1099965603.28083</v>
+        <v>1050195574.853719</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1286392882154996</v>
+        <v>0.1576763597173708</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0227664895146767</v>
+        <v>0.02053212198507111</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1129,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2127371722.352348</v>
+        <v>1828700294.651087</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1570747380494643</v>
+        <v>0.09904832419676446</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02535951582481209</v>
+        <v>0.02280615662489776</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1164,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2628089310.410609</v>
+        <v>2105543863.564302</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0693874413306924</v>
+        <v>0.0913276392647121</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03821087427386571</v>
+        <v>0.02841201035321594</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1199,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3425231981.603292</v>
+        <v>2618687547.773211</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0981901799582149</v>
+        <v>0.1189081203116385</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05664418387157358</v>
+        <v>0.05049125085151527</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>47</v>
+      </c>
+      <c r="J22" t="n">
+        <v>181</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1234,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1023743585.52763</v>
+        <v>1035655643.772856</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1713175585601671</v>
+        <v>0.1403626955009339</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04977478288720445</v>
+        <v>0.05403125944982309</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1269,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3570222156.22627</v>
+        <v>4134675234.83946</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1396013964269837</v>
+        <v>0.09085910343520189</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02327584941696404</v>
+        <v>0.03098961367165652</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>57</v>
+      </c>
+      <c r="J24" t="n">
+        <v>183</v>
+      </c>
+      <c r="K24" t="n">
+        <v>113.4314679493719</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1200958355.938125</v>
+        <v>1396386096.242921</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08688523347270329</v>
+        <v>0.0759154601455968</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02525070909710062</v>
+        <v>0.02294969222681027</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1347,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1092713903.861306</v>
+        <v>897252580.2660495</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1061584791382396</v>
+        <v>0.09139892452674857</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02854573116176031</v>
+        <v>0.02762600983870864</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1376,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3137118879.866938</v>
+        <v>3458210941.576927</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1132272681858172</v>
+        <v>0.1506197265439423</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01650846224269289</v>
+        <v>0.02153665824810944</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>73</v>
+      </c>
+      <c r="J27" t="n">
+        <v>183</v>
+      </c>
+      <c r="K27" t="n">
+        <v>92.52782358836643</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1413,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3595283024.155692</v>
+        <v>3084066931.4709</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1085430619037666</v>
+        <v>0.1089432046864332</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04450281400930632</v>
+        <v>0.03469634142015569</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>37</v>
+      </c>
+      <c r="J28" t="n">
+        <v>183</v>
+      </c>
+      <c r="K28" t="n">
+        <v>85.75140601091707</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4609422054.590821</v>
+        <v>4311861045.571797</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1200523292073671</v>
+        <v>0.1137913281374266</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03900628527924453</v>
+        <v>0.04513400885106734</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>173</v>
+      </c>
+      <c r="J29" t="n">
+        <v>184</v>
+      </c>
+      <c r="K29" t="n">
+        <v>144.0518706470569</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2313354539.344482</v>
+        <v>1835534674.26252</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09145483229730327</v>
+        <v>0.1070533943345275</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02564817103631724</v>
+        <v>0.03256955602025777</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1076344486.817948</v>
+        <v>1045652426.853577</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08945852502427243</v>
+        <v>0.1069572763503377</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04237075452172145</v>
+        <v>0.0520867532758185</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1563,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1409568977.497357</v>
+        <v>1629107865.425983</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07438339414754876</v>
+        <v>0.1181857096824796</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03644626962366369</v>
+        <v>0.02746045727835397</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2389275642.176925</v>
+        <v>2551566052.460288</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1629949023130413</v>
+        <v>0.1315338258169603</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04544265744934885</v>
+        <v>0.0456322851598495</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1092501171.958265</v>
+        <v>1096064724.054037</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07604736001864283</v>
+        <v>0.09302893041308029</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02839647666705254</v>
+        <v>0.025217234670341</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1030663975.679709</v>
+        <v>1257400046.50705</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07178091922806037</v>
+        <v>0.1158265425372576</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04243777673018199</v>
+        <v>0.03801615887179741</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2373996824.889372</v>
+        <v>2647336687.091911</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1744875161761014</v>
+        <v>0.1596360898463182</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01779158894123578</v>
+        <v>0.01790694126524237</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1880239839.011803</v>
+        <v>2150523163.819473</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09658738811240852</v>
+        <v>0.09901101010014152</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04000137692657565</v>
+        <v>0.03043639967958807</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1494345752.746899</v>
+        <v>1989251955.350448</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09124961622110712</v>
+        <v>0.1215401624347525</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02586925798738649</v>
+        <v>0.03369264135281163</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2201670470.332874</v>
+        <v>1461998644.479987</v>
       </c>
       <c r="F39" t="n">
-        <v>0.131965606875437</v>
+        <v>0.1917098389868483</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02964198101465789</v>
+        <v>0.02331947642680662</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1208512686.253993</v>
+        <v>1536254213.339772</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1212018818130857</v>
+        <v>0.1338954037271241</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03762450612793286</v>
+        <v>0.05096828874121055</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1988632806.77322</v>
+        <v>2299862978.568374</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1326333624073034</v>
+        <v>0.1062494025228234</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03781649853141712</v>
+        <v>0.04721019174336436</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3709564394.857727</v>
+        <v>2897466280.895811</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08238346537521565</v>
+        <v>0.1191453518237759</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04395193832946672</v>
+        <v>0.04557426142662012</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>70</v>
+      </c>
+      <c r="J42" t="n">
+        <v>180</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2588616877.96867</v>
+        <v>2828489047.07226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1667052873230276</v>
+        <v>0.1730969223191765</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01949638425854796</v>
+        <v>0.02199615110457255</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1980177563.38206</v>
+        <v>2281900216.708336</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09162416465053921</v>
+        <v>0.07942037855828298</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03567941546935639</v>
+        <v>0.02910121855359854</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2018,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2344872447.892557</v>
+        <v>1799976583.221844</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1830350690310178</v>
+        <v>0.119023461555868</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04512161733104265</v>
+        <v>0.04477286091151585</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3798035347.382316</v>
+        <v>4234515708.419368</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1111549612354136</v>
+        <v>0.1606225310680581</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05385957033569214</v>
+        <v>0.0537799660843458</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>104</v>
+      </c>
+      <c r="J46" t="n">
+        <v>184</v>
+      </c>
+      <c r="K46" t="n">
+        <v>127.8165047747483</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2090,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5006394461.414101</v>
+        <v>4136397909.426927</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1348700740136491</v>
+        <v>0.1661078688890485</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04178421030121404</v>
+        <v>0.04571560054498098</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>81</v>
+      </c>
+      <c r="J47" t="n">
+        <v>184</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2125,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3488722483.230296</v>
+        <v>3594504059.995465</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1006058304110877</v>
+        <v>0.08765595015728268</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03548055127793432</v>
+        <v>0.029163314454289</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>85</v>
+      </c>
+      <c r="J48" t="n">
+        <v>184</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1662776490.697237</v>
+        <v>1529474333.766252</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1240670205498963</v>
+        <v>0.1402821255211814</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03628250266413777</v>
+        <v>0.03812944110686949</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3238217761.796977</v>
+        <v>3582536952.350907</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1770534959762111</v>
+        <v>0.1187292743549199</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03778036601098154</v>
+        <v>0.03879470315113454</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>58</v>
+      </c>
+      <c r="J50" t="n">
+        <v>182</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1506249393.627595</v>
+        <v>933580494.1673899</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1470320644303783</v>
+        <v>0.1238587616226761</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05053577047687493</v>
+        <v>0.05143809930544316</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2259,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4366982605.441961</v>
+        <v>3505625046.709037</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1323888175835428</v>
+        <v>0.09627183180313358</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03843410024660155</v>
+        <v>0.04511648200959071</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>130</v>
+      </c>
+      <c r="J52" t="n">
+        <v>183</v>
+      </c>
+      <c r="K52" t="n">
+        <v>110.2450910985898</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2296,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3782191956.0455</v>
+        <v>2526754965.72577</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1486291420791105</v>
+        <v>0.1305045077705884</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0310465810560062</v>
+        <v>0.03135303924715922</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>25</v>
+      </c>
+      <c r="J53" t="n">
+        <v>183</v>
+      </c>
+      <c r="K53" t="n">
+        <v>53.97732119739863</v>
       </c>
     </row>
     <row r="54">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4926312386.942327</v>
+        <v>4962896542.531732</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1519347522295298</v>
+        <v>0.1048360161552029</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03617969158249838</v>
+        <v>0.05230123432620751</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>93</v>
+      </c>
+      <c r="J54" t="n">
+        <v>184</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3526888964.710258</v>
+        <v>4087152167.906113</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1627995971364161</v>
+        <v>0.2086694749673079</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02834704706723979</v>
+        <v>0.02070376320788508</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>83</v>
+      </c>
+      <c r="J55" t="n">
+        <v>184</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1627112156.026831</v>
+        <v>1144030128.2767</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1506471539979831</v>
+        <v>0.1603763163712442</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04062598636463639</v>
+        <v>0.0516346552436914</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2438,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4209375838.585527</v>
+        <v>3489684549.281935</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1174526834305553</v>
+        <v>0.1611352630239185</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02223468428552114</v>
+        <v>0.02570360545803383</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>74</v>
+      </c>
+      <c r="J57" t="n">
+        <v>181</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1212486834.002299</v>
+        <v>1814836889.538899</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1298585989559571</v>
+        <v>0.1737101752840478</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03209613153978304</v>
+        <v>0.03579847082415528</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2514,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3497756536.142797</v>
+        <v>5188735314.323711</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08030318110440189</v>
+        <v>0.08337257518220308</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04727688302588534</v>
+        <v>0.04352049245578304</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>88</v>
+      </c>
+      <c r="J59" t="n">
+        <v>184</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2549,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2848334711.570951</v>
+        <v>2569069357.883465</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1931469429579792</v>
+        <v>0.1696628077788261</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03213023466304182</v>
+        <v>0.02804993838487048</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>26</v>
+      </c>
+      <c r="J60" t="n">
+        <v>170</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2584,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2268826172.142118</v>
+        <v>2752769725.429942</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1674259945746521</v>
+        <v>0.14837426420176</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03053041872446899</v>
+        <v>0.03159612610700155</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>158</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2613,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1717893724.321417</v>
+        <v>2033673049.439134</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1265580313138421</v>
+        <v>0.1636438740062665</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04842141416221075</v>
+        <v>0.03661291950799576</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2648,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4935869832.298057</v>
+        <v>3827687757.477136</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07813604800119109</v>
+        <v>0.09093101092495905</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03598518306141862</v>
+        <v>0.03460810923087694</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>90</v>
+      </c>
+      <c r="J63" t="n">
+        <v>184</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2689,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3610332929.763783</v>
+        <v>5476579159.930651</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1765608341287555</v>
+        <v>0.1726447354750762</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03483650700724926</v>
+        <v>0.03552158422919131</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>90</v>
+      </c>
+      <c r="J64" t="n">
+        <v>184</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2718,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4909420393.051881</v>
+        <v>4576398173.430481</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1300729862941949</v>
+        <v>0.1484239080894767</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02140497567210253</v>
+        <v>0.03227039267559764</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>149</v>
+      </c>
+      <c r="J65" t="n">
+        <v>184</v>
+      </c>
+      <c r="K65" t="n">
+        <v>128.9253880294514</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2755,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5292451848.01259</v>
+        <v>4053732015.206392</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1397211579345728</v>
+        <v>0.1257353047586411</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03856132649424389</v>
+        <v>0.04988859157371772</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>90</v>
+      </c>
+      <c r="J66" t="n">
+        <v>184</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2790,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2558686527.577634</v>
+        <v>2621356286.502181</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08208587298143062</v>
+        <v>0.09017518062985937</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04703930794824441</v>
+        <v>0.04508916644799285</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>157</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2825,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4459099567.917073</v>
+        <v>3808769131.887218</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1133868400756638</v>
+        <v>0.1312965107339814</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04402938807090206</v>
+        <v>0.049860554723239</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>92</v>
+      </c>
+      <c r="J68" t="n">
+        <v>184</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2860,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1553769876.724429</v>
+        <v>2267220461.586563</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1657639928036267</v>
+        <v>0.1729987054098531</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04409358192556102</v>
+        <v>0.05602595957031485</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2901,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3374441301.462725</v>
+        <v>2930471001.010462</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07728447046239373</v>
+        <v>0.1014204802934274</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03653761318490223</v>
+        <v>0.04124147454586587</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>25</v>
+      </c>
+      <c r="J70" t="n">
+        <v>167</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2930,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4696450985.143342</v>
+        <v>3691509845.941151</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1395105630096005</v>
+        <v>0.150161817871172</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0256534241750823</v>
+        <v>0.02244990874989994</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>143</v>
+      </c>
+      <c r="J71" t="n">
+        <v>183</v>
+      </c>
+      <c r="K71" t="n">
+        <v>125.8150869221652</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2967,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1785978346.3307</v>
+        <v>1625196139.976312</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09199070069276641</v>
+        <v>0.07323104881601715</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04815792564442773</v>
+        <v>0.05267632160377941</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3008,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3254663489.46276</v>
+        <v>3584194622.62302</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08650156664881606</v>
+        <v>0.0904866907452444</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04211597305871487</v>
+        <v>0.05089457116125832</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3037,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3539407243.524034</v>
+        <v>3357174026.408892</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1238776873874324</v>
+        <v>0.125760937557678</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02650147421573419</v>
+        <v>0.02142524851733333</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>53</v>
+      </c>
+      <c r="J74" t="n">
+        <v>178</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3072,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1626413794.222589</v>
+        <v>2423435600.218268</v>
       </c>
       <c r="F75" t="n">
-        <v>0.167270655735626</v>
+        <v>0.1576098190463917</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02492905081621611</v>
+        <v>0.03337014862227015</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3107,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5264786009.263941</v>
+        <v>4468528323.559443</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1102284942419448</v>
+        <v>0.08235794482704301</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02718414875407001</v>
+        <v>0.02275891119754495</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>84</v>
+      </c>
+      <c r="J76" t="n">
+        <v>183</v>
+      </c>
+      <c r="K76" t="n">
+        <v>106.1413111836654</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3144,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2251366837.905396</v>
+        <v>1571216816.805797</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1318639727022291</v>
+        <v>0.1631242344638387</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02086609166378761</v>
+        <v>0.02728814000827155</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3179,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4580648479.050946</v>
+        <v>3271228283.089165</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1099138829683457</v>
+        <v>0.1288093114032124</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03542058454532526</v>
+        <v>0.05285740830268466</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>94</v>
+      </c>
+      <c r="J78" t="n">
+        <v>183</v>
+      </c>
+      <c r="K78" t="n">
+        <v>98.93180372118968</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3216,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1492011424.83424</v>
+        <v>1410182064.936696</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1499040330722353</v>
+        <v>0.13956432696223</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03622123991935857</v>
+        <v>0.0399252785505987</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3251,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3515581908.461995</v>
+        <v>5367371260.264173</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09649391260963731</v>
+        <v>0.09690655945123733</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0306139419853488</v>
+        <v>0.03413296779451599</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>90</v>
+      </c>
+      <c r="J80" t="n">
+        <v>183</v>
+      </c>
+      <c r="K80" t="n">
+        <v>93.41519214051229</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3288,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3965814548.422116</v>
+        <v>4197124124.054083</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08824739762656214</v>
+        <v>0.08469121707395501</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02511075350129578</v>
+        <v>0.03265104761041773</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>85</v>
+      </c>
+      <c r="J81" t="n">
+        <v>183</v>
+      </c>
+      <c r="K81" t="n">
+        <v>109.1897154653745</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3325,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3986157215.08949</v>
+        <v>4094954198.98414</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1786564588080295</v>
+        <v>0.1547972563507017</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01945769251348634</v>
+        <v>0.01810270406002106</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>136</v>
+      </c>
+      <c r="J82" t="n">
+        <v>184</v>
+      </c>
+      <c r="K82" t="n">
+        <v>133.7356252856831</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3362,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1832117185.079319</v>
+        <v>1580632528.074153</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1113062436642386</v>
+        <v>0.1367595181874594</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03061919489232359</v>
+        <v>0.04098729603602216</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3397,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2108100909.309998</v>
+        <v>2225008525.519875</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0868524385307346</v>
+        <v>0.08724878855235191</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03278041570895553</v>
+        <v>0.03858659694936725</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3432,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3321482184.438751</v>
+        <v>3434683262.353653</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1301101745313462</v>
+        <v>0.1683526776287716</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0523317343877496</v>
+        <v>0.04955494730747115</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>27</v>
+      </c>
+      <c r="J85" t="n">
+        <v>170</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3467,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2396508842.658295</v>
+        <v>2732052758.60244</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1402721681107086</v>
+        <v>0.1071042800405753</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02001419519500549</v>
+        <v>0.02237071897748591</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3502,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1411307437.695291</v>
+        <v>1322697932.675676</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1341918452142491</v>
+        <v>0.1698286640783191</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02940843681129014</v>
+        <v>0.04371437636274954</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3537,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3135039805.564507</v>
+        <v>3209956300.507995</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1173992933771368</v>
+        <v>0.1579641974353162</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02412554116835766</v>
+        <v>0.02938373079517096</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>26</v>
+      </c>
+      <c r="J88" t="n">
+        <v>181</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3572,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2383209066.68622</v>
+        <v>2455372290.148716</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1123641097139047</v>
+        <v>0.1222228052874386</v>
       </c>
       <c r="G89" t="n">
-        <v>0.027603780167906</v>
+        <v>0.02794784304291829</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3607,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1821268457.319506</v>
+        <v>1432151905.874588</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1093890536352776</v>
+        <v>0.1338366930968885</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04488941393642196</v>
+        <v>0.04440771223378272</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3648,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1752442792.110751</v>
+        <v>1814800894.953443</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1811355485035727</v>
+        <v>0.1939635425974355</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04378066198930636</v>
+        <v>0.0610679516131439</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3683,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2578103584.155285</v>
+        <v>1992118705.908962</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08715395746388679</v>
+        <v>0.09138647494086807</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03418121543578841</v>
+        <v>0.03187585160431237</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3718,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4522714015.252737</v>
+        <v>3681478130.097977</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1337397600509814</v>
+        <v>0.1064590200412911</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05430749626381462</v>
+        <v>0.04833492671258231</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>83</v>
+      </c>
+      <c r="J93" t="n">
+        <v>183</v>
+      </c>
+      <c r="K93" t="n">
+        <v>117.5517367754793</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3749,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2120036512.587296</v>
+        <v>1850801083.548892</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1686036547189096</v>
+        <v>0.1188771004285998</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03636934622723763</v>
+        <v>0.03861606757021761</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3784,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2190718558.792308</v>
+        <v>2583062855.995541</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08404822655893472</v>
+        <v>0.1118432900945252</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03243655611502454</v>
+        <v>0.03616448252588353</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3819,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2045029767.27272</v>
+        <v>1899835425.744643</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08957025150838241</v>
+        <v>0.132381641190608</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02915434121486506</v>
+        <v>0.04424506851980223</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3854,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4263031372.362651</v>
+        <v>4031134925.188304</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1665051551877558</v>
+        <v>0.1524238514705569</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0182720163551439</v>
+        <v>0.02729071742306447</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>89</v>
+      </c>
+      <c r="J97" t="n">
+        <v>183</v>
+      </c>
+      <c r="K97" t="n">
+        <v>122.4956116903937</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2923557392.530619</v>
+        <v>3241275880.295702</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0826038048298371</v>
+        <v>0.1060210711767753</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02610029848108073</v>
+        <v>0.03143040986472821</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>45</v>
+      </c>
+      <c r="J98" t="n">
+        <v>183</v>
+      </c>
+      <c r="K98" t="n">
+        <v>85.12950190129189</v>
       </c>
     </row>
     <row r="99">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2385675637.206395</v>
+        <v>2438862547.979355</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1132882258505809</v>
+        <v>0.1300880136832184</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03199204699195632</v>
+        <v>0.02526073383204765</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4040900505.025039</v>
+        <v>4697421162.722205</v>
       </c>
       <c r="F100" t="n">
-        <v>0.152434379598603</v>
+        <v>0.1623607592250808</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01735880964255844</v>
+        <v>0.02451721615423741</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>77</v>
+      </c>
+      <c r="J100" t="n">
+        <v>183</v>
+      </c>
+      <c r="K100" t="n">
+        <v>118.5229016765558</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2988582239.244354</v>
+        <v>3093561905.838832</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2081480140338187</v>
+        <v>0.1595889960450548</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05650158729432284</v>
+        <v>0.0555735210896714</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
